--- a/XlsxVisionerV2/test.xlsx
+++ b/XlsxVisionerV2/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="18960" windowHeight="10305"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>field1</t>
   </si>
@@ -28,8 +28,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +67,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -145,6 +150,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -179,6 +185,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -354,16 +361,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,7 +385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -393,7 +400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -408,7 +415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -423,7 +430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -438,7 +445,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -450,6 +457,92 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A9*A10</f>
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:F11" si="1">B9*B10</f>
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
